--- a/Proj1_control_signals.xlsx
+++ b/Proj1_control_signals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vskja\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4225B6-1A92-40D9-B4A7-6129E740E558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5257C27-57CA-41CB-8252-38EBB6A1CCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
   <si>
     <t>Instruction</t>
   </si>
@@ -62,137 +62,9 @@
     <t>"001000"</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[addi writes back to a register]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[addi uses rt as destination register rather than rd]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">s_DMemWr </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[MemWrite from text]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">s_RegWr </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[RegWrite from text]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[addi does NOT write to memory]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[addi does NOT read from memory]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[use the appropriately extended immediate as source B]</t>
-    </r>
-  </si>
-  <si>
     <t>ALUControl</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">0010 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[the alu will perform an add of A and B]</t>
-    </r>
-  </si>
-  <si>
     <t>add</t>
   </si>
   <si>
@@ -305,6 +177,54 @@
   </si>
   <si>
     <t>"000000"</t>
+  </si>
+  <si>
+    <t>"100000"</t>
+  </si>
+  <si>
+    <t>"100001"</t>
+  </si>
+  <si>
+    <t>"100100"</t>
+  </si>
+  <si>
+    <t>"100010"</t>
+  </si>
+  <si>
+    <t>"100110"</t>
+  </si>
+  <si>
+    <t>"100111"</t>
+  </si>
+  <si>
+    <t>"100101"</t>
+  </si>
+  <si>
+    <t>"101010"</t>
+  </si>
+  <si>
+    <t>"010"</t>
+  </si>
+  <si>
+    <t>"000"</t>
+  </si>
+  <si>
+    <t>"111"</t>
+  </si>
+  <si>
+    <t>"110"</t>
+  </si>
+  <si>
+    <t>"001"</t>
+  </si>
+  <si>
+    <t>"---"</t>
+  </si>
+  <si>
+    <t>s_DMemWr</t>
+  </si>
+  <si>
+    <t>s_RegWr</t>
   </si>
 </sst>
 </file>
@@ -320,9 +240,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -348,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -358,6 +276,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -685,7 +606,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -693,58 +614,58 @@
     <col min="1" max="1" width="9.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>5</v>
@@ -761,224 +682,749 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
+      <c r="D3" s="1">
+        <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
       </c>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="B24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="B26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="B27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -988,6 +1434,7 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:O1"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>